--- a/Test_database.xlsx
+++ b/Test_database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmachado\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pfgom\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F6C5BD5-0917-4732-B954-14B9DFF83BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A73C957-1D35-4DDB-A45B-9AEC7DD62DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8FF2EC8C-E033-45C2-98AF-EB8A21AF3897}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8FF2EC8C-E033-45C2-98AF-EB8A21AF3897}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t>fund_name</t>
   </si>
@@ -65,10 +65,16 @@
     <t>True</t>
   </si>
   <si>
-    <t>TREND IBOVESPA FIA</t>
-  </si>
-  <si>
     <t>Bitcoin</t>
+  </si>
+  <si>
+    <t>EQUITAS SHELTER</t>
+  </si>
+  <si>
+    <t>DRYS SHELTER PREV</t>
+  </si>
+  <si>
+    <t>PETR4</t>
   </si>
 </sst>
 </file>
@@ -440,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A201320F-A474-4ED9-B3EA-F51465EAF147}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,10 +504,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -512,10 +518,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -526,15 +532,113 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
     </row>

--- a/Test_database.xlsx
+++ b/Test_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pfgom\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A73C957-1D35-4DDB-A45B-9AEC7DD62DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D572EEC-2198-4973-AE58-DDDB79B75E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8FF2EC8C-E033-45C2-98AF-EB8A21AF3897}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
     <t>fund_name</t>
   </si>
@@ -44,30 +44,15 @@
     <t>asset_name</t>
   </si>
   <si>
-    <t>allowed</t>
-  </si>
-  <si>
-    <t>dif</t>
-  </si>
-  <si>
     <t>TREND DI SIMPLES FUNDOS DE INVESTIMENTO EM RENDA FIXA</t>
   </si>
   <si>
     <t>Stocks</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>LFT</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>Bitcoin</t>
-  </si>
-  <si>
     <t>EQUITAS SHELTER</t>
   </si>
   <si>
@@ -75,6 +60,9 @@
   </si>
   <si>
     <t>PETR4</t>
+  </si>
+  <si>
+    <t>CLCD16</t>
   </si>
 </sst>
 </file>
@@ -446,200 +434,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A201320F-A474-4ED9-B3EA-F51465EAF147}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="54.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Test_database.xlsx
+++ b/Test_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pfgom\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D572EEC-2198-4973-AE58-DDDB79B75E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0850BB0B-F031-448C-B4AE-2A57F0A069C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8FF2EC8C-E033-45C2-98AF-EB8A21AF3897}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>fund_name</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>LFT</t>
-  </si>
-  <si>
-    <t>EQUITAS SHELTER</t>
   </si>
   <si>
     <t>DRYS SHELTER PREV</t>
@@ -434,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A201320F-A474-4ED9-B3EA-F51465EAF147}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A6" sqref="A6:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -483,7 +480,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -507,7 +504,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -515,39 +512,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
         <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Test_database.xlsx
+++ b/Test_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pfgom\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0850BB0B-F031-448C-B4AE-2A57F0A069C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF91715-1938-4C3B-8089-1057B1680700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8FF2EC8C-E033-45C2-98AF-EB8A21AF3897}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
     <t>fund_name</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>CLCD16</t>
+  </si>
+  <si>
+    <t>EQUITAS SHELTER</t>
   </si>
 </sst>
 </file>
@@ -431,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A201320F-A474-4ED9-B3EA-F51465EAF147}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,7 +488,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -493,7 +496,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -501,7 +504,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -509,9 +512,41 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Test_database.xlsx
+++ b/Test_database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pfgom\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gduarte\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF91715-1938-4C3B-8089-1057B1680700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FED1B5F-54DF-450E-8980-356BEF65CD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8FF2EC8C-E033-45C2-98AF-EB8A21AF3897}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8FF2EC8C-E033-45C2-98AF-EB8A21AF3897}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>fund_name</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>EQUITAS SHELTER</t>
+  </si>
+  <si>
+    <t>Compromissadas</t>
   </si>
 </sst>
 </file>
@@ -434,19 +437,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A201320F-A474-4ED9-B3EA-F51465EAF147}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,7 +457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -462,7 +465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -470,7 +473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -478,7 +481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -486,68 +489,92 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Test_database.xlsx
+++ b/Test_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gduarte\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FED1B5F-54DF-450E-8980-356BEF65CD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0B2593-79EA-43F2-904A-77FFD2D586A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8FF2EC8C-E033-45C2-98AF-EB8A21AF3897}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="11">
   <si>
     <t>fund_name</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Compromissadas</t>
+  </si>
+  <si>
+    <t>EQUITAS SELECTION</t>
   </si>
 </sst>
 </file>
@@ -437,16 +440,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A201320F-A474-4ED9-B3EA-F51465EAF147}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -577,6 +580,46 @@
         <v>9</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
